--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_1000/Tests_Estadisticos/dm_comparaciones_LSPMW_Lineal_No_Estacionario_ARIMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_1000/Tests_Estadisticos/dm_comparaciones_LSPMW_Lineal_No_Estacionario_ARIMA.xlsx
@@ -438,10 +438,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>-1.453485418237244</v>
+        <v>-1.369222752465303</v>
       </c>
       <c r="D2">
-        <v>0.1462759039130388</v>
+        <v>0.1847468298328279</v>
       </c>
       <c r="E2">
         <v>1.040028559713127</v>
@@ -464,10 +464,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>-0.9637709428060337</v>
+        <v>-0.9325905165252423</v>
       </c>
       <c r="D3">
-        <v>0.3352995623441934</v>
+        <v>0.3611542257068452</v>
       </c>
       <c r="E3">
         <v>1.040028559713127</v>
@@ -490,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>-0.5413542368868264</v>
+        <v>-0.5812698454246622</v>
       </c>
       <c r="D4">
-        <v>0.5883352645854818</v>
+        <v>0.5669669067847858</v>
       </c>
       <c r="E4">
         <v>1.040028559713127</v>
@@ -516,10 +516,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>0.09528449671408493</v>
+        <v>0.08117548879069721</v>
       </c>
       <c r="D5">
-        <v>0.924100226774708</v>
+        <v>0.9360363648816095</v>
       </c>
       <c r="E5">
         <v>1.040028559713127</v>
@@ -542,10 +542,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>0.417584007272349</v>
+        <v>0.3884104703610011</v>
       </c>
       <c r="D6">
-        <v>0.6763046838635578</v>
+        <v>0.7014455791256897</v>
       </c>
       <c r="E6">
         <v>1.100483165123584</v>
@@ -568,10 +568,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>0.6680715236836188</v>
+        <v>0.8090514090100458</v>
       </c>
       <c r="D7">
-        <v>0.5041797611640702</v>
+        <v>0.4271492026379053</v>
       </c>
       <c r="E7">
         <v>1.100483165123584</v>
@@ -594,10 +594,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>1.686965424593411</v>
+        <v>1.727081942419339</v>
       </c>
       <c r="D8">
-        <v>0.09179575771293336</v>
+        <v>0.09816893846958363</v>
       </c>
       <c r="E8">
         <v>1.100483165123584</v>
@@ -620,10 +620,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>0.3036473234023905</v>
+        <v>0.3346064155803629</v>
       </c>
       <c r="D9">
-        <v>0.7614342162197132</v>
+        <v>0.7410911263585525</v>
       </c>
       <c r="E9">
         <v>1.080094731015179</v>
@@ -646,10 +646,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>0.9352648287412242</v>
+        <v>0.810420190048305</v>
       </c>
       <c r="D10">
-        <v>0.3497863278996527</v>
+        <v>0.4263788909805717</v>
       </c>
       <c r="E10">
         <v>1.080094731015179</v>
@@ -672,10 +672,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>0.6757009264069135</v>
+        <v>0.674182658586801</v>
       </c>
       <c r="D11">
-        <v>0.4993235994527412</v>
+        <v>0.507218003366757</v>
       </c>
       <c r="E11">
         <v>1.066030802513466</v>
